--- a/StructureDefinition-profile-Location.xlsx
+++ b/StructureDefinition-profile-Location.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="310">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.724722-06:00</t>
+    <t>2026-02-09T22:05:43.186568-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -413,33 +413,98 @@
     <t>Location.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Location.extension:contact</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Location.contact|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Location.contact from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The contact details of communication devices available at the location. This can include addresses, phone numbers, fax numbers, mobile numbers, email addresses and web sites.</t>
+  </si>
+  <si>
+    <t>Element `Location.contact` is will have a context of Location based on following the parent source element upwards and mapping to `Location`.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Location.extension:characteristic</t>
+  </si>
+  <si>
+    <t>characteristic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Location.characteristic|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Location.characteristic from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Collection of characteristics (attributes).</t>
+  </si>
+  <si>
+    <t>Element `Location.characteristic` is will have a context of Location based on following the parent source element upwards and mapping to `Location`.</t>
+  </si>
+  <si>
+    <t>Location.extension:virtualService</t>
+  </si>
+  <si>
+    <t>virtualService</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Location.virtualService|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Location.virtualService from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Connection details of a virtual service (e.g. shared conference call facility with dedicated number/details).</t>
+  </si>
+  <si>
+    <t>Element `Location.virtualService` is will have a context of Location based on following the parent source element upwards and mapping to `Location`.</t>
+  </si>
+  <si>
+    <t>Location.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Location.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -447,6 +512,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -711,6 +779,9 @@
   </si>
   <si>
     <t>Location.position.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
@@ -1215,7 +1286,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL40"/>
+  <dimension ref="A1:AL43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1226,7 +1297,7 @@
   <cols>
     <col min="1" max="1" width="38.02734375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="38.02734375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="11.79296875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1234,7 +1305,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="25.46484375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="86.29296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2140,7 +2211,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2159,17 +2230,15 @@
         <v>75</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>133</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>75</v>
@@ -2206,16 +2275,14 @@
         <v>75</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>134</v>
@@ -2233,7 +2300,7 @@
         <v>135</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>75</v>
@@ -2244,11 +2311,13 @@
         <v>136</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2261,26 +2330,24 @@
         <v>75</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>75</v>
       </c>
@@ -2328,7 +2395,7 @@
         <v>75</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
@@ -2337,13 +2404,13 @@
         <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>135</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>75</v>
@@ -2351,12 +2418,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="D11" t="s" s="2">
         <v>75</v>
       </c>
@@ -2374,21 +2443,21 @@
         <v>75</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N11" s="2"/>
-      <c r="O11" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>75</v>
       </c>
@@ -2436,7 +2505,7 @@
         <v>75</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>76</v>
@@ -2445,26 +2514,28 @@
         <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>146</v>
+        <v>75</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>147</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>75</v>
       </c>
@@ -2473,27 +2544,29 @@
         <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>104</v>
+        <v>151</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N12" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>75</v>
@@ -2518,13 +2591,13 @@
         <v>75</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>151</v>
+        <v>75</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>75</v>
@@ -2542,65 +2615,69 @@
         <v>75</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>155</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
+      <c r="O13" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="P13" t="s" s="2">
         <v>75</v>
       </c>
@@ -2624,57 +2701,57 @@
         <v>75</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>160</v>
+        <v>75</v>
       </c>
       <c r="Z13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF13" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="AA13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>156</v>
-      </c>
       <c r="AG13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>155</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2685,7 +2762,7 @@
         <v>76</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>75</v>
@@ -2697,18 +2774,18 @@
         <v>85</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" s="2"/>
+      <c r="O14" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="N14" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>75</v>
       </c>
@@ -2756,13 +2833,13 @@
         <v>75</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>75</v>
@@ -2771,10 +2848,10 @@
         <v>96</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>75</v>
       </c>
     </row>
     <row r="15">
@@ -2793,19 +2870,19 @@
         <v>76</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>164</v>
+        <v>104</v>
       </c>
       <c r="L15" t="s" s="2">
         <v>170</v>
@@ -2813,12 +2890,8 @@
       <c r="M15" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="N15" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>173</v>
-      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>75</v>
       </c>
@@ -2842,13 +2915,13 @@
         <v>75</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>75</v>
+        <v>172</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>75</v>
+        <v>173</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>75</v>
+        <v>174</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>75</v>
@@ -2872,7 +2945,7 @@
         <v>76</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>75</v>
@@ -2881,18 +2954,18 @@
         <v>96</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>75</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2915,18 +2988,16 @@
         <v>85</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="N16" s="2"/>
-      <c r="O16" t="s" s="2">
-        <v>177</v>
-      </c>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>75</v>
       </c>
@@ -2950,13 +3021,13 @@
         <v>75</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>75</v>
+        <v>181</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>75</v>
+        <v>182</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>75</v>
@@ -2974,7 +3045,7 @@
         <v>75</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
@@ -2989,18 +3060,18 @@
         <v>96</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>75</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3023,20 +3094,18 @@
         <v>85</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>104</v>
+        <v>185</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>75</v>
       </c>
@@ -3060,31 +3129,31 @@
         <v>75</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>151</v>
+        <v>75</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>181</v>
+        <v>75</v>
       </c>
       <c r="Z17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF17" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
@@ -3099,18 +3168,18 @@
         <v>96</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>186</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3130,19 +3199,23 @@
         <v>75</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="P18" t="s" s="2">
         <v>75</v>
       </c>
@@ -3166,31 +3239,31 @@
         <v>75</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>191</v>
+        <v>75</v>
       </c>
       <c r="Y18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF18" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
@@ -3205,18 +3278,18 @@
         <v>96</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>186</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3227,7 +3300,7 @@
         <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>75</v>
@@ -3236,10 +3309,10 @@
         <v>75</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="L19" t="s" s="2">
         <v>196</v>
@@ -3248,7 +3321,9 @@
         <v>197</v>
       </c>
       <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+      <c r="O19" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>75</v>
       </c>
@@ -3296,13 +3371,13 @@
         <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>75</v>
@@ -3311,7 +3386,7 @@
         <v>96</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>75</v>
@@ -3319,10 +3394,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3342,10 +3417,10 @@
         <v>75</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>200</v>
+        <v>104</v>
       </c>
       <c r="L20" t="s" s="2">
         <v>201</v>
@@ -3382,13 +3457,13 @@
         <v>75</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>75</v>
+        <v>172</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>75</v>
+        <v>202</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>75</v>
+        <v>205</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>75</v>
@@ -3406,7 +3481,7 @@
         <v>75</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
@@ -3421,18 +3496,18 @@
         <v>96</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>75</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3443,7 +3518,7 @@
         <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>75</v>
@@ -3455,18 +3530,16 @@
         <v>85</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="N21" s="2"/>
-      <c r="O21" t="s" s="2">
-        <v>209</v>
-      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>75</v>
       </c>
@@ -3490,13 +3563,13 @@
         <v>75</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Y21" t="s" s="2">
         <v>211</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>75</v>
@@ -3514,13 +3587,13 @@
         <v>75</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>75</v>
@@ -3529,18 +3602,18 @@
         <v>96</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>186</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3551,7 +3624,7 @@
         <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>75</v>
@@ -3563,18 +3636,16 @@
         <v>75</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N22" s="2"/>
-      <c r="O22" t="s" s="2">
-        <v>218</v>
-      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>75</v>
       </c>
@@ -3622,13 +3693,13 @@
         <v>75</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>75</v>
@@ -3671,16 +3742,20 @@
         <v>75</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>164</v>
+        <v>221</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>75</v>
       </c>
@@ -3728,7 +3803,7 @@
         <v>75</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
@@ -3740,10 +3815,10 @@
         <v>75</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>162</v>
+        <v>226</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>75</v>
@@ -3751,21 +3826,21 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>75</v>
@@ -3774,21 +3849,21 @@
         <v>75</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>130</v>
+        <v>209</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>131</v>
+        <v>228</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O24" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>75</v>
       </c>
@@ -3812,13 +3887,13 @@
         <v>75</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>75</v>
+        <v>231</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>75</v>
+        <v>232</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>75</v>
+        <v>233</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>75</v>
@@ -3836,68 +3911,66 @@
         <v>75</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>162</v>
+        <v>234</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>75</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>228</v>
+        <v>75</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>130</v>
+        <v>236</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>139</v>
+        <v>239</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>75</v>
@@ -3946,22 +4019,22 @@
         <v>75</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>127</v>
+        <v>240</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>75</v>
@@ -3969,10 +4042,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3980,7 +4053,7 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>84</v>
@@ -3995,13 +4068,13 @@
         <v>75</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>233</v>
+        <v>185</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4052,10 +4125,10 @@
         <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>84</v>
@@ -4064,10 +4137,10 @@
         <v>75</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>236</v>
+        <v>183</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>75</v>
@@ -4075,21 +4148,21 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>75</v>
@@ -4101,15 +4174,17 @@
         <v>75</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>233</v>
+        <v>129</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>75</v>
@@ -4158,22 +4233,22 @@
         <v>75</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>236</v>
+        <v>183</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>75</v>
@@ -4181,42 +4256,46 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>75</v>
+        <v>250</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>233</v>
+        <v>129</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>75</v>
       </c>
@@ -4264,22 +4343,22 @@
         <v>75</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>236</v>
+        <v>127</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>75</v>
@@ -4287,10 +4366,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4298,7 +4377,7 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>84</v>
@@ -4310,23 +4389,19 @@
         <v>75</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>248</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>75</v>
       </c>
@@ -4374,10 +4449,10 @@
         <v>75</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>84</v>
@@ -4389,7 +4464,7 @@
         <v>96</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>75</v>
@@ -4397,10 +4472,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4408,7 +4483,7 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>84</v>
@@ -4423,18 +4498,16 @@
         <v>75</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="N30" s="2"/>
-      <c r="O30" t="s" s="2">
-        <v>254</v>
-      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>75</v>
       </c>
@@ -4482,10 +4555,10 @@
         <v>75</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>84</v>
@@ -4497,7 +4570,7 @@
         <v>96</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>75</v>
@@ -4505,10 +4578,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4519,7 +4592,7 @@
         <v>76</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>75</v>
@@ -4531,17 +4604,15 @@
         <v>75</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>215</v>
+        <v>255</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>259</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>75</v>
@@ -4590,13 +4661,13 @@
         <v>75</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>75</v>
@@ -4605,7 +4676,7 @@
         <v>96</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>75</v>
@@ -4613,10 +4684,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4636,19 +4707,23 @@
         <v>75</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>164</v>
+        <v>266</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>221</v>
+        <v>267</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>75</v>
       </c>
@@ -4696,7 +4771,7 @@
         <v>75</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>223</v>
+        <v>265</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
@@ -4708,10 +4783,10 @@
         <v>75</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>162</v>
+        <v>271</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>75</v>
@@ -4719,21 +4794,21 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>75</v>
@@ -4745,18 +4820,18 @@
         <v>75</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>130</v>
+        <v>273</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>131</v>
+        <v>274</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O33" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>75</v>
       </c>
@@ -4804,22 +4879,22 @@
         <v>75</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>226</v>
+        <v>272</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>162</v>
+        <v>277</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>75</v>
@@ -4827,14 +4902,14 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>228</v>
+        <v>75</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -4847,26 +4922,24 @@
         <v>75</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>130</v>
+        <v>236</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>229</v>
+        <v>279</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>230</v>
+        <v>280</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>75</v>
       </c>
@@ -4914,7 +4987,7 @@
         <v>75</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>231</v>
+        <v>278</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
@@ -4926,10 +4999,10 @@
         <v>75</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>127</v>
+        <v>282</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>75</v>
@@ -4937,10 +5010,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4951,7 +5024,7 @@
         <v>76</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>75</v>
@@ -4963,13 +5036,13 @@
         <v>75</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>104</v>
+        <v>185</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -4996,13 +5069,13 @@
         <v>75</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>151</v>
+        <v>75</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>267</v>
+        <v>75</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>268</v>
+        <v>75</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>75</v>
@@ -5020,22 +5093,22 @@
         <v>75</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>260</v>
+        <v>183</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>75</v>
@@ -5043,21 +5116,21 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>75</v>
@@ -5069,15 +5142,17 @@
         <v>75</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>270</v>
+        <v>129</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>75</v>
@@ -5126,22 +5201,22 @@
         <v>75</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>260</v>
+        <v>183</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>75</v>
@@ -5149,42 +5224,46 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>75</v>
+        <v>250</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>274</v>
+        <v>129</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>75</v>
       </c>
@@ -5232,22 +5311,22 @@
         <v>75</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>260</v>
+        <v>127</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>75</v>
@@ -5255,10 +5334,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5269,7 +5348,7 @@
         <v>76</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>75</v>
@@ -5281,13 +5360,13 @@
         <v>75</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>274</v>
+        <v>104</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5314,13 +5393,13 @@
         <v>75</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>75</v>
+        <v>172</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>75</v>
+        <v>289</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>75</v>
+        <v>290</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>75</v>
@@ -5338,13 +5417,13 @@
         <v>75</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>75</v>
@@ -5353,7 +5432,7 @@
         <v>96</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>260</v>
+        <v>282</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>75</v>
@@ -5361,10 +5440,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5387,13 +5466,13 @@
         <v>75</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>164</v>
+        <v>292</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5444,7 +5523,7 @@
         <v>75</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
@@ -5459,7 +5538,7 @@
         <v>96</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>162</v>
+        <v>282</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>75</v>
@@ -5467,10 +5546,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5481,7 +5560,7 @@
         <v>76</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>75</v>
@@ -5493,18 +5572,16 @@
         <v>75</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="N40" s="2"/>
-      <c r="O40" t="s" s="2">
-        <v>287</v>
-      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>75</v>
       </c>
@@ -5552,13 +5629,13 @@
         <v>75</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>75</v>
@@ -5567,9 +5644,329 @@
         <v>96</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>162</v>
+        <v>282</v>
       </c>
       <c r="AL40" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q41" s="2"/>
+      <c r="R41" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q42" s="2"/>
+      <c r="R42" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="P43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q43" s="2"/>
+      <c r="R43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>75</v>
       </c>
     </row>

--- a/StructureDefinition-profile-Location.xlsx
+++ b/StructureDefinition-profile-Location.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="315">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.186568-06:00</t>
+    <t>2026-02-17T14:42:26.8381186-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -453,7 +453,7 @@
     <t>The contact details of communication devices available at the location. This can include addresses, phone numbers, fax numbers, mobile numbers, email addresses and web sites.</t>
   </si>
   <si>
-    <t>Element `Location.contact` is will have a context of Location based on following the parent source element upwards and mapping to `Location`.</t>
+    <t>Element `Location.contact` has a context of Location based on following the parent source element upwards and mapping to `Location`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -476,7 +476,7 @@
     <t>Collection of characteristics (attributes).</t>
   </si>
   <si>
-    <t>Element `Location.characteristic` is will have a context of Location based on following the parent source element upwards and mapping to `Location`.</t>
+    <t>Element `Location.characteristic` has a context of Location based on following the parent source element upwards and mapping to `Location`.</t>
   </si>
   <si>
     <t>Location.extension:virtualService</t>
@@ -495,7 +495,7 @@
     <t>Connection details of a virtual service (e.g. shared conference call facility with dedicated number/details).</t>
   </si>
   <si>
-    <t>Element `Location.virtualService` is will have a context of Location based on following the parent source element upwards and mapping to `Location`.</t>
+    <t>Element `Location.virtualService` has a context of Location based on following the parent source element upwards and mapping to `Location`.</t>
   </si>
   <si>
     <t>Location.modifierExtension</t>
@@ -781,13 +781,23 @@
     <t>Location.position.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
     <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Location.position.extension:position</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Location.position|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Location.position from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Location.position` has is mapped to FHIR R4 element `Location.position`, but has no comparisons.</t>
   </si>
   <si>
     <t>Location.position.modifierExtension</t>
@@ -902,6 +912,12 @@
   </si>
   <si>
     <t>Location.hoursOfOperation.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Location.hoursOfOperation.modifierExtension</t>
@@ -1286,7 +1302,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL43"/>
+  <dimension ref="A1:AL44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4155,7 +4171,7 @@
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>156</v>
+        <v>75</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4177,14 +4193,12 @@
         <v>129</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>246</v>
+        <v>130</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>75</v>
@@ -4221,19 +4235,17 @@
         <v>75</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="AC27" s="2"/>
       <c r="AD27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
@@ -4248,7 +4260,7 @@
         <v>135</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>183</v>
+        <v>75</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>75</v>
@@ -4256,46 +4268,46 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="C28" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="D28" t="s" s="2">
-        <v>250</v>
+        <v>75</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="N28" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="M28" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>160</v>
-      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>75</v>
       </c>
@@ -4343,7 +4355,7 @@
         <v>75</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
@@ -4352,13 +4364,13 @@
         <v>77</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>135</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>75</v>
@@ -4366,42 +4378,46 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>75</v>
+        <v>253</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="L29" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+      <c r="N29" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>75</v>
       </c>
@@ -4449,22 +4465,22 @@
         <v>75</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>258</v>
+        <v>127</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>75</v>
@@ -4472,10 +4488,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4498,13 +4514,13 @@
         <v>75</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4555,7 +4571,7 @@
         <v>75</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>84</v>
@@ -4570,7 +4586,7 @@
         <v>96</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>75</v>
@@ -4589,7 +4605,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>84</v>
@@ -4604,7 +4620,7 @@
         <v>75</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="L31" t="s" s="2">
         <v>263</v>
@@ -4664,7 +4680,7 @@
         <v>262</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>84</v>
@@ -4676,7 +4692,7 @@
         <v>96</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>75</v>
@@ -4707,23 +4723,19 @@
         <v>75</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M32" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>270</v>
-      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>75</v>
       </c>
@@ -4786,7 +4798,7 @@
         <v>96</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>75</v>
@@ -4794,10 +4806,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4817,20 +4829,22 @@
         <v>75</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="O33" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>75</v>
@@ -4879,7 +4893,7 @@
         <v>75</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
@@ -4894,7 +4908,7 @@
         <v>96</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>75</v>
@@ -4902,10 +4916,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4916,7 +4930,7 @@
         <v>76</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>75</v>
@@ -4928,18 +4942,18 @@
         <v>75</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>236</v>
+        <v>276</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="M34" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>75</v>
       </c>
@@ -4987,13 +5001,13 @@
         <v>75</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>75</v>
@@ -5002,7 +5016,7 @@
         <v>96</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>75</v>
@@ -5010,10 +5024,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5024,7 +5038,7 @@
         <v>76</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>75</v>
@@ -5036,15 +5050,17 @@
         <v>75</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>185</v>
+        <v>236</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>242</v>
+        <v>282</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>75</v>
@@ -5093,22 +5109,22 @@
         <v>75</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>183</v>
+        <v>285</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>75</v>
@@ -5116,21 +5132,21 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>156</v>
+        <v>75</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>75</v>
@@ -5142,17 +5158,15 @@
         <v>75</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>129</v>
+        <v>185</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>75</v>
@@ -5201,19 +5215,19 @@
         <v>75</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>183</v>
@@ -5224,14 +5238,14 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>250</v>
+        <v>156</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5244,26 +5258,24 @@
         <v>75</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>129</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>251</v>
+        <v>288</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>252</v>
+        <v>289</v>
       </c>
       <c r="N37" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="O37" t="s" s="2">
-        <v>160</v>
-      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>75</v>
       </c>
@@ -5311,7 +5323,7 @@
         <v>75</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
@@ -5326,7 +5338,7 @@
         <v>135</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>127</v>
+        <v>183</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>75</v>
@@ -5334,14 +5346,14 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>75</v>
+        <v>253</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -5354,22 +5366,26 @@
         <v>75</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>287</v>
+        <v>254</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>75</v>
       </c>
@@ -5393,13 +5409,13 @@
         <v>75</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>172</v>
+        <v>75</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>289</v>
+        <v>75</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>290</v>
+        <v>75</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>75</v>
@@ -5417,7 +5433,7 @@
         <v>75</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
@@ -5429,10 +5445,10 @@
         <v>75</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>282</v>
+        <v>127</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>75</v>
@@ -5454,7 +5470,7 @@
         <v>76</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>75</v>
@@ -5466,13 +5482,13 @@
         <v>75</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5499,13 +5515,13 @@
         <v>75</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>75</v>
+        <v>172</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>75</v>
+        <v>294</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>75</v>
+        <v>295</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>75</v>
@@ -5529,7 +5545,7 @@
         <v>76</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>75</v>
@@ -5538,7 +5554,7 @@
         <v>96</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>75</v>
@@ -5546,10 +5562,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5572,13 +5588,13 @@
         <v>75</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5629,7 +5645,7 @@
         <v>75</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
@@ -5644,7 +5660,7 @@
         <v>96</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>75</v>
@@ -5652,10 +5668,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5678,13 +5694,13 @@
         <v>75</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -5735,7 +5751,7 @@
         <v>75</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
@@ -5750,7 +5766,7 @@
         <v>96</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>75</v>
@@ -5758,10 +5774,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5784,13 +5800,13 @@
         <v>75</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>185</v>
+        <v>301</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -5841,7 +5857,7 @@
         <v>75</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
@@ -5856,7 +5872,7 @@
         <v>96</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>183</v>
+        <v>285</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>75</v>
@@ -5864,10 +5880,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -5878,7 +5894,7 @@
         <v>76</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>75</v>
@@ -5890,18 +5906,16 @@
         <v>75</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>306</v>
+        <v>185</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N43" s="2"/>
-      <c r="O43" t="s" s="2">
-        <v>309</v>
-      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>75</v>
       </c>
@@ -5949,13 +5963,13 @@
         <v>75</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>75</v>
@@ -5967,6 +5981,114 @@
         <v>183</v>
       </c>
       <c r="AL43" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="P44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q44" s="2"/>
+      <c r="R44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>75</v>
       </c>
     </row>

--- a/StructureDefinition-profile-Location.xlsx
+++ b/StructureDefinition-profile-Location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.8381186-06:00</t>
+    <t>2026-02-20T11:59:20.8627812-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Location|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Location</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -443,7 +443,7 @@
     <t>contact</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Location.contact|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Location.contact}
 </t>
   </si>
   <si>
@@ -466,7 +466,7 @@
     <t>characteristic</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Location.characteristic|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Location.characteristic}
 </t>
   </si>
   <si>
@@ -485,7 +485,7 @@
     <t>virtualService</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Location.virtualService|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Location.virtualService}
 </t>
   </si>
   <si>
@@ -583,7 +583,7 @@
     <t>The operational status if the location (where typically a bed/room).</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-0116|2.0.0</t>
+    <t>http://terminology.hl7.org/ValueSet/v2-0116</t>
   </si>
   <si>
     <t>n/a</t>
@@ -679,7 +679,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ServiceDeliveryLocationRoleType|3.0.0</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-ServiceDeliveryLocationRoleType</t>
   </si>
   <si>
     <t>.code</t>
@@ -790,7 +790,7 @@
     <t>position</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Location.position|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Location.position}
 </t>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="86.29296875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="71.87890625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1336,7 +1336,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="73.2265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="64.83203125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="59.92578125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="15.98046875" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-profile-Location.xlsx
+++ b/StructureDefinition-profile-Location.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="310">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.8627812-06:00</t>
+    <t>2026-02-21T13:36:54.2668308-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Location</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Location|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -443,7 +443,7 @@
     <t>contact</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Location.contact}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Location.contact|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -466,7 +466,7 @@
     <t>characteristic</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Location.characteristic}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Location.characteristic|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -485,7 +485,7 @@
     <t>virtualService</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Location.virtualService}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Location.virtualService|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -583,7 +583,7 @@
     <t>The operational status if the location (where typically a bed/room).</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-0116</t>
+    <t>http://terminology.hl7.org/ValueSet/v2-0116|2.0.0</t>
   </si>
   <si>
     <t>n/a</t>
@@ -679,7 +679,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ServiceDeliveryLocationRoleType</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-ServiceDeliveryLocationRoleType|3.0.0</t>
   </si>
   <si>
     <t>.code</t>
@@ -781,23 +781,13 @@
     <t>Location.position.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Location.position.extension:position</t>
-  </si>
-  <si>
-    <t>position</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Location.position}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Location.position from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `Location.position` has is mapped to FHIR R4 element `Location.position`, but has no comparisons.</t>
   </si>
   <si>
     <t>Location.position.modifierExtension</t>
@@ -912,12 +902,6 @@
   </si>
   <si>
     <t>Location.hoursOfOperation.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Location.hoursOfOperation.modifierExtension</t>
@@ -1302,7 +1286,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL44"/>
+  <dimension ref="A1:AL43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1321,7 +1305,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="71.87890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="86.29296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1336,7 +1320,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="73.2265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="59.92578125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="64.83203125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="15.98046875" customWidth="true" bestFit="true"/>
@@ -4171,7 +4155,7 @@
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4193,12 +4177,14 @@
         <v>129</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>130</v>
+        <v>246</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>75</v>
@@ -4235,17 +4221,19 @@
         <v>75</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AC27" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AD27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
@@ -4260,7 +4248,7 @@
         <v>135</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>75</v>
+        <v>183</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>75</v>
@@ -4268,46 +4256,46 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="C28" t="s" s="2">
-        <v>248</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>75</v>
+        <v>250</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>249</v>
+        <v>129</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O28" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>75</v>
       </c>
@@ -4355,7 +4343,7 @@
         <v>75</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
@@ -4364,13 +4352,13 @@
         <v>77</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>135</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>75</v>
@@ -4378,46 +4366,42 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>253</v>
+        <v>75</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>129</v>
+        <v>255</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>75</v>
       </c>
@@ -4465,22 +4449,22 @@
         <v>75</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>127</v>
+        <v>258</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>75</v>
@@ -4488,10 +4472,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4514,13 +4498,13 @@
         <v>75</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4571,7 +4555,7 @@
         <v>75</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>84</v>
@@ -4586,7 +4570,7 @@
         <v>96</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>75</v>
@@ -4605,7 +4589,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>84</v>
@@ -4620,7 +4604,7 @@
         <v>75</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L31" t="s" s="2">
         <v>263</v>
@@ -4680,7 +4664,7 @@
         <v>262</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>84</v>
@@ -4692,7 +4676,7 @@
         <v>96</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>75</v>
@@ -4723,19 +4707,23 @@
         <v>75</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>75</v>
       </c>
@@ -4798,7 +4786,7 @@
         <v>96</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>75</v>
@@ -4806,10 +4794,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4829,22 +4817,20 @@
         <v>75</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>75</v>
@@ -4893,7 +4879,7 @@
         <v>75</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
@@ -4908,7 +4894,7 @@
         <v>96</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>75</v>
@@ -4916,10 +4902,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4930,7 +4916,7 @@
         <v>76</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>75</v>
@@ -4942,18 +4928,18 @@
         <v>75</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>276</v>
+        <v>236</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>75</v>
       </c>
@@ -5001,13 +4987,13 @@
         <v>75</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>75</v>
@@ -5016,7 +5002,7 @@
         <v>96</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>75</v>
@@ -5024,10 +5010,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5038,7 +5024,7 @@
         <v>76</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>75</v>
@@ -5050,17 +5036,15 @@
         <v>75</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>236</v>
+        <v>185</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>282</v>
+        <v>242</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>75</v>
@@ -5109,22 +5093,22 @@
         <v>75</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>281</v>
+        <v>244</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>285</v>
+        <v>183</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>75</v>
@@ -5132,21 +5116,21 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>75</v>
@@ -5158,15 +5142,17 @@
         <v>75</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>185</v>
+        <v>129</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>75</v>
@@ -5215,19 +5201,19 @@
         <v>75</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>183</v>
@@ -5238,14 +5224,14 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>156</v>
+        <v>250</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5258,24 +5244,26 @@
         <v>75</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>129</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>288</v>
+        <v>251</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>289</v>
+        <v>252</v>
       </c>
       <c r="N37" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="O37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>75</v>
       </c>
@@ -5323,7 +5311,7 @@
         <v>75</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
@@ -5338,7 +5326,7 @@
         <v>135</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>183</v>
+        <v>127</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>75</v>
@@ -5346,14 +5334,14 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>253</v>
+        <v>75</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -5366,26 +5354,22 @@
         <v>75</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>254</v>
+        <v>287</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>75</v>
       </c>
@@ -5409,13 +5393,13 @@
         <v>75</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>75</v>
+        <v>172</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>75</v>
+        <v>289</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>75</v>
+        <v>290</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>75</v>
@@ -5433,7 +5417,7 @@
         <v>75</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>256</v>
+        <v>286</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
@@ -5445,10 +5429,10 @@
         <v>75</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>127</v>
+        <v>282</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>75</v>
@@ -5470,7 +5454,7 @@
         <v>76</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>75</v>
@@ -5482,13 +5466,13 @@
         <v>75</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>104</v>
+        <v>292</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5515,13 +5499,13 @@
         <v>75</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>172</v>
+        <v>75</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>294</v>
+        <v>75</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>295</v>
+        <v>75</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>75</v>
@@ -5545,7 +5529,7 @@
         <v>76</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>75</v>
@@ -5554,7 +5538,7 @@
         <v>96</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>75</v>
@@ -5562,10 +5546,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5588,13 +5572,13 @@
         <v>75</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5645,7 +5629,7 @@
         <v>75</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
@@ -5660,7 +5644,7 @@
         <v>96</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>75</v>
@@ -5668,10 +5652,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5694,13 +5678,13 @@
         <v>75</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -5751,7 +5735,7 @@
         <v>75</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
@@ -5766,7 +5750,7 @@
         <v>96</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>75</v>
@@ -5774,10 +5758,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5800,13 +5784,13 @@
         <v>75</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>301</v>
+        <v>185</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -5857,7 +5841,7 @@
         <v>75</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
@@ -5872,7 +5856,7 @@
         <v>96</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>285</v>
+        <v>183</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>75</v>
@@ -5880,10 +5864,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -5894,7 +5878,7 @@
         <v>76</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>75</v>
@@ -5906,16 +5890,18 @@
         <v>75</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>185</v>
+        <v>306</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" s="2"/>
+      <c r="O43" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>75</v>
       </c>
@@ -5963,13 +5949,13 @@
         <v>75</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>75</v>
@@ -5981,114 +5967,6 @@
         <v>183</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E44" s="2"/>
-      <c r="F44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="P44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q44" s="2"/>
-      <c r="R44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="AL44" t="s" s="2">
         <v>75</v>
       </c>
     </row>
